--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Npy-Prlhr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Npy-Prlhr.xlsx
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.06872833333333332</v>
+        <v>0.000144</v>
       </c>
       <c r="N2">
-        <v>0.206185</v>
+        <v>0.000432</v>
       </c>
       <c r="O2">
-        <v>0.4975602810865074</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="P2">
-        <v>0.4975602810865074</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="Q2">
-        <v>0.03760262282388888</v>
+        <v>7.878523200000001E-05</v>
       </c>
       <c r="R2">
-        <v>0.338423605415</v>
+        <v>0.0007090670879999999</v>
       </c>
       <c r="S2">
-        <v>0.4975602810865074</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="T2">
-        <v>0.4975602810865074</v>
+        <v>0.6050420168067226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.06940233333333333</v>
+        <v>9.400000000000001E-05</v>
       </c>
       <c r="N3">
-        <v>0.208207</v>
+        <v>0.000282</v>
       </c>
       <c r="O3">
-        <v>0.5024397189134926</v>
+        <v>0.3949579831932774</v>
       </c>
       <c r="P3">
-        <v>0.5024397189134925</v>
+        <v>0.3949579831932774</v>
       </c>
       <c r="Q3">
-        <v>0.03797138147922222</v>
+        <v>5.142924866666667E-05</v>
       </c>
       <c r="R3">
-        <v>0.341742433313</v>
+        <v>0.0004628632380000001</v>
       </c>
       <c r="S3">
-        <v>0.5024397189134926</v>
+        <v>0.3949579831932774</v>
       </c>
       <c r="T3">
-        <v>0.5024397189134925</v>
+        <v>0.3949579831932774</v>
       </c>
     </row>
   </sheetData>
